--- a/reports/For The Week Ending (Actual)_Weather.xlsx
+++ b/reports/For The Week Ending (Actual)_Weather.xlsx
@@ -444,50 +444,46 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45992.33342291666</v>
+        <v>45999.33342905092</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>45993.33341936343</v>
+        <v>46000.33342068287</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Weather.xlsx
+++ b/reports/For The Week Ending (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>current_temperature</t>
+  </si>
+  <si>
+    <t>Partly Cloudy</t>
   </si>
   <si>
     <t>Sunny</t>
@@ -444,29 +447,33 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45999.33342905092</v>
+        <v>45999.33342280093</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
       <c r="E2" s="2">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F2" s="2">
+        <v>60</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>46000.33342068287</v>
+        <v>46000.33341339121</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -474,16 +481,20 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
       <c r="E3" s="2">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F3" s="2">
+        <v>60</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Weather.xlsx
+++ b/reports/For The Week Ending (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>current_temperature</t>
-  </si>
-  <si>
-    <t>Partly Cloudy</t>
   </si>
   <si>
     <t>Sunny</t>
@@ -447,33 +444,29 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45999.33342280093</v>
+        <v>45999.33342905092</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>46000.33341339121</v>
+        <v>46000.33342068287</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -481,20 +474,16 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2">
-        <v>60</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Weather.xlsx
+++ b/reports/For The Week Ending (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Sunny</t>
+  </si>
+  <si>
+    <t>Mostly Sunny</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,6 +489,28 @@
         <v>26</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>46001.33341871528</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reports/For The Week Ending (Actual)_Weather.xlsx
+++ b/reports/For The Week Ending (Actual)_Weather.xlsx
@@ -40,10 +40,10 @@
     <t>current_temperature</t>
   </si>
   <si>
+    <t>Partly Cloudy</t>
+  </si>
+  <si>
     <t>Sunny</t>
-  </si>
-  <si>
-    <t>Mostly Sunny</t>
   </si>
 </sst>
 </file>
@@ -447,29 +447,33 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45999.33342905092</v>
+        <v>45999.33342280093</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
       <c r="E2" s="2">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F2" s="2">
+        <v>60</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>46000.33342068287</v>
+        <v>46000.33341339121</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -477,21 +481,25 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
       <c r="E3" s="2">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F3" s="2">
+        <v>60</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>46001.33341871528</v>
+        <v>46001.33341168981</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -499,16 +507,20 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
       <c r="E4" s="2">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Weather.xlsx
+++ b/reports/For The Week Ending (Actual)_Weather.xlsx
@@ -40,10 +40,10 @@
     <t>current_temperature</t>
   </si>
   <si>
+    <t>Partly Cloudy</t>
+  </si>
+  <si>
     <t>Sunny</t>
-  </si>
-  <si>
-    <t>Mostly Sunny</t>
   </si>
 </sst>
 </file>
@@ -447,29 +447,33 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45999.33342905092</v>
+        <v>45999.33342280093</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
       <c r="E2" s="2">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F2" s="2">
+        <v>60</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>46000.33342068287</v>
+        <v>46000.33341339121</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -477,21 +481,25 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
       <c r="E3" s="2">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F3" s="2">
+        <v>60</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>46001.33341871528</v>
+        <v>46001.33341168981</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -499,21 +507,25 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
       <c r="E4" s="2">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>46002.33342994213</v>
+        <v>46002.33342167824</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -521,16 +533,20 @@
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
       <c r="E5" s="2">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F5" s="2">
+        <v>60</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="2">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Weather.xlsx
+++ b/reports/For The Week Ending (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -40,10 +40,10 @@
     <t>current_temperature</t>
   </si>
   <si>
-    <t>Partly Cloudy</t>
-  </si>
-  <si>
     <t>Sunny</t>
+  </si>
+  <si>
+    <t>Mostly Sunny</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,33 +447,29 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45999.33342280093</v>
+        <v>45999.33342905092</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2">
-        <v>60</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>46000.33341339121</v>
+        <v>46000.33342068287</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -481,25 +477,21 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2">
-        <v>60</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>46001.33341168981</v>
+        <v>46001.33341871528</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -507,25 +499,21 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2">
-        <v>60</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>46002.33342167824</v>
+        <v>46002.33342994213</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -533,20 +521,84 @@
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2">
-        <v>60</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2">
-        <v>43</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>46003.33343831018</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>46004.33342488426</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>46005.3334372338</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_Weather.xlsx
+++ b/reports/For The Week Ending (Actual)_Weather.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -40,10 +40,16 @@
     <t>current_temperature</t>
   </si>
   <si>
+    <t>Partly Cloudy</t>
+  </si>
+  <si>
     <t>Sunny</t>
   </si>
   <si>
     <t>Mostly Sunny</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
   </si>
 </sst>
 </file>
@@ -447,29 +453,33 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>45999.33342905092</v>
+        <v>45999.33342280093</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
       <c r="E2" s="2">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="F2" s="2">
+        <v>60</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>46000.33342068287</v>
+        <v>46000.33341339121</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -477,21 +487,25 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
       <c r="E3" s="2">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F3" s="2">
+        <v>60</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>46001.33341871528</v>
+        <v>46001.33341168981</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -499,21 +513,25 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
       <c r="E4" s="2">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F4" s="2">
+        <v>60</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>46002.33342994213</v>
+        <v>46002.33342167824</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -521,21 +539,25 @@
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
       <c r="E5" s="2">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F5" s="2">
+        <v>60</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="2">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>46003.33343831018</v>
+        <v>46003.33343202547</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -543,21 +565,25 @@
       <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
       <c r="E6" s="2">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F6" s="2">
+        <v>60</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="2">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>46004.33342488426</v>
+        <v>46004.33341840278</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -565,21 +591,25 @@
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
       <c r="E7" s="2">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F7" s="2">
+        <v>60</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>46005.3334372338</v>
+        <v>46005.33343055555</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -591,14 +621,16 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F8" s="2">
+        <v>60</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
